--- a/GOOGL DCF.xlsx
+++ b/GOOGL DCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente1\Desktop\DCFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D3E535-02EE-4C09-8C25-1D59C267700C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14B026-857D-43A3-B801-79819E6CEAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2DCB3FCC-EE91-47A7-B5A5-B3B0D77DA663}"/>
+    <workbookView xWindow="2130" yWindow="3450" windowWidth="15375" windowHeight="7785" xr2:uid="{2DCB3FCC-EE91-47A7-B5A5-B3B0D77DA663}"/>
   </bookViews>
   <sheets>
     <sheet name="GOOGL DCF" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -553,7 +553,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -944,7 +943,7 @@
   <dimension ref="A2:CH72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,12 +957,12 @@
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="39"/>
+    <col min="19" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:86" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="9"/>
@@ -991,7 +990,7 @@
       </c>
     </row>
     <row r="5" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10">
@@ -1002,19 +1001,19 @@
       <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <v>109</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="36">
         <f>(J6/J5)-1</f>
-        <v>0.5367709122057891</v>
+        <v>0.17840761565660768</v>
       </c>
     </row>
     <row r="6" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="10">
@@ -1024,9 +1023,9 @@
       <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <f>D63</f>
-        <v>167.50802943043101</v>
+        <v>128.44643010657023</v>
       </c>
     </row>
     <row r="7" spans="1:86" x14ac:dyDescent="0.25">
@@ -1128,208 +1127,208 @@
       <c r="R10" s="18">
         <v>2032</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="39">
         <v>2033</v>
       </c>
-      <c r="T10" s="40">
+      <c r="T10" s="39">
         <v>2034</v>
       </c>
-      <c r="U10" s="40">
+      <c r="U10" s="39">
         <v>2035</v>
       </c>
-      <c r="V10" s="40">
+      <c r="V10" s="39">
         <v>2036</v>
       </c>
-      <c r="W10" s="40">
+      <c r="W10" s="39">
         <v>2037</v>
       </c>
-      <c r="X10" s="40">
+      <c r="X10" s="39">
         <v>2038</v>
       </c>
-      <c r="Y10" s="40">
+      <c r="Y10" s="39">
         <v>2039</v>
       </c>
-      <c r="Z10" s="40">
+      <c r="Z10" s="39">
         <v>2040</v>
       </c>
-      <c r="AA10" s="40">
+      <c r="AA10" s="39">
         <v>2041</v>
       </c>
-      <c r="AB10" s="40">
+      <c r="AB10" s="39">
         <v>2042</v>
       </c>
-      <c r="AC10" s="40">
+      <c r="AC10" s="39">
         <v>2043</v>
       </c>
-      <c r="AD10" s="40">
+      <c r="AD10" s="39">
         <v>2044</v>
       </c>
-      <c r="AE10" s="40">
+      <c r="AE10" s="39">
         <v>2045</v>
       </c>
-      <c r="AF10" s="40">
+      <c r="AF10" s="39">
         <v>2046</v>
       </c>
-      <c r="AG10" s="40">
+      <c r="AG10" s="39">
         <v>2047</v>
       </c>
-      <c r="AH10" s="40">
+      <c r="AH10" s="39">
         <v>2048</v>
       </c>
-      <c r="AI10" s="40">
+      <c r="AI10" s="39">
         <v>2049</v>
       </c>
-      <c r="AJ10" s="40">
+      <c r="AJ10" s="39">
         <v>2050</v>
       </c>
-      <c r="AK10" s="40">
+      <c r="AK10" s="39">
         <v>2051</v>
       </c>
-      <c r="AL10" s="40">
+      <c r="AL10" s="39">
         <v>2052</v>
       </c>
-      <c r="AM10" s="40">
+      <c r="AM10" s="39">
         <v>2053</v>
       </c>
-      <c r="AN10" s="40">
+      <c r="AN10" s="39">
         <v>2054</v>
       </c>
-      <c r="AO10" s="40">
+      <c r="AO10" s="39">
         <v>2055</v>
       </c>
-      <c r="AP10" s="40">
+      <c r="AP10" s="39">
         <v>2056</v>
       </c>
-      <c r="AQ10" s="40">
+      <c r="AQ10" s="39">
         <v>2057</v>
       </c>
-      <c r="AR10" s="40">
+      <c r="AR10" s="39">
         <v>2058</v>
       </c>
-      <c r="AS10" s="40">
+      <c r="AS10" s="39">
         <v>2059</v>
       </c>
-      <c r="AT10" s="40">
+      <c r="AT10" s="39">
         <v>2060</v>
       </c>
-      <c r="AU10" s="40">
+      <c r="AU10" s="39">
         <v>2061</v>
       </c>
-      <c r="AV10" s="40">
+      <c r="AV10" s="39">
         <v>2062</v>
       </c>
-      <c r="AW10" s="40">
+      <c r="AW10" s="39">
         <v>2063</v>
       </c>
-      <c r="AX10" s="40">
+      <c r="AX10" s="39">
         <v>2064</v>
       </c>
-      <c r="AY10" s="40">
+      <c r="AY10" s="39">
         <v>2065</v>
       </c>
-      <c r="AZ10" s="40">
+      <c r="AZ10" s="39">
         <v>2066</v>
       </c>
-      <c r="BA10" s="40">
+      <c r="BA10" s="39">
         <v>2067</v>
       </c>
-      <c r="BB10" s="40">
+      <c r="BB10" s="39">
         <v>2068</v>
       </c>
-      <c r="BC10" s="40">
+      <c r="BC10" s="39">
         <v>2069</v>
       </c>
-      <c r="BD10" s="40">
+      <c r="BD10" s="39">
         <v>2070</v>
       </c>
-      <c r="BE10" s="40">
+      <c r="BE10" s="39">
         <v>2071</v>
       </c>
-      <c r="BF10" s="40">
+      <c r="BF10" s="39">
         <v>2072</v>
       </c>
-      <c r="BG10" s="40">
+      <c r="BG10" s="39">
         <v>2073</v>
       </c>
-      <c r="BH10" s="40">
+      <c r="BH10" s="39">
         <v>2074</v>
       </c>
-      <c r="BI10" s="40">
+      <c r="BI10" s="39">
         <v>2075</v>
       </c>
-      <c r="BJ10" s="40">
+      <c r="BJ10" s="39">
         <v>2076</v>
       </c>
-      <c r="BK10" s="40">
+      <c r="BK10" s="39">
         <v>2077</v>
       </c>
-      <c r="BL10" s="40">
+      <c r="BL10" s="39">
         <v>2078</v>
       </c>
-      <c r="BM10" s="40">
+      <c r="BM10" s="39">
         <v>2079</v>
       </c>
-      <c r="BN10" s="40">
+      <c r="BN10" s="39">
         <v>2080</v>
       </c>
-      <c r="BO10" s="40">
+      <c r="BO10" s="39">
         <v>2081</v>
       </c>
-      <c r="BP10" s="40">
+      <c r="BP10" s="39">
         <v>2082</v>
       </c>
-      <c r="BQ10" s="40">
+      <c r="BQ10" s="39">
         <v>2083</v>
       </c>
-      <c r="BR10" s="40">
+      <c r="BR10" s="39">
         <v>2084</v>
       </c>
-      <c r="BS10" s="40">
+      <c r="BS10" s="39">
         <v>2085</v>
       </c>
-      <c r="BT10" s="40">
+      <c r="BT10" s="39">
         <v>2086</v>
       </c>
-      <c r="BU10" s="40">
+      <c r="BU10" s="39">
         <v>2087</v>
       </c>
-      <c r="BV10" s="40">
+      <c r="BV10" s="39">
         <v>2088</v>
       </c>
-      <c r="BW10" s="40">
+      <c r="BW10" s="39">
         <v>2089</v>
       </c>
-      <c r="BX10" s="40">
+      <c r="BX10" s="39">
         <v>2090</v>
       </c>
-      <c r="BY10" s="40">
+      <c r="BY10" s="39">
         <v>2091</v>
       </c>
-      <c r="BZ10" s="40">
+      <c r="BZ10" s="39">
         <v>2092</v>
       </c>
-      <c r="CA10" s="40">
+      <c r="CA10" s="39">
         <v>2093</v>
       </c>
-      <c r="CB10" s="40">
+      <c r="CB10" s="39">
         <v>2094</v>
       </c>
-      <c r="CC10" s="40">
+      <c r="CC10" s="39">
         <v>2095</v>
       </c>
-      <c r="CD10" s="40">
+      <c r="CD10" s="39">
         <v>2096</v>
       </c>
-      <c r="CE10" s="40">
+      <c r="CE10" s="39">
         <v>2097</v>
       </c>
-      <c r="CF10" s="40">
+      <c r="CF10" s="39">
         <v>2098</v>
       </c>
-      <c r="CG10" s="40">
+      <c r="CG10" s="39">
         <v>2099</v>
       </c>
-      <c r="CH10" s="40">
+      <c r="CH10" s="39">
         <v>2100</v>
       </c>
     </row>
@@ -1355,43 +1354,43 @@
       <c r="H11" s="5">
         <v>282836</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="48">
         <f>H11*(1+I12)</f>
         <v>299240.48800000001</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <f t="shared" ref="J11:R11" si="1">I11*(1+J12)</f>
         <v>334062.87217271572</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="42">
         <f t="shared" si="1"/>
         <v>374105.6137659247</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <f t="shared" si="1"/>
         <v>401597.49604357994</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="42">
         <f t="shared" si="1"/>
         <v>429059.37626709446</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="42">
         <f t="shared" si="1"/>
         <v>450650.8545637324</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="42">
         <f t="shared" si="1"/>
         <v>504404.53489927144</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="42">
         <f t="shared" si="1"/>
         <v>535786.68353051262</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="42">
         <f t="shared" si="1"/>
         <v>611401.86064995651</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="42">
         <f t="shared" si="1"/>
         <v>641973.95381939702</v>
       </c>
@@ -1454,15 +1453,15 @@
     </row>
     <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
       <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:86" x14ac:dyDescent="0.25">
@@ -1487,43 +1486,43 @@
       <c r="H14" s="5">
         <v>126203</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="68">
         <f>I11-I16</f>
         <v>133521.10574560001</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="69">
         <f t="shared" ref="J14:R14" si="3">J11-J16</f>
         <v>146920.85118156037</v>
       </c>
-      <c r="K14" s="70">
+      <c r="K14" s="69">
         <f t="shared" si="3"/>
         <v>163783.43770672183</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="69">
         <f t="shared" si="3"/>
         <v>181923.66570774169</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="69">
         <f t="shared" si="3"/>
         <v>193934.83807272668</v>
       </c>
-      <c r="N14" s="70">
+      <c r="N14" s="69">
         <f t="shared" si="3"/>
         <v>200882.12493032939</v>
       </c>
-      <c r="O14" s="70">
+      <c r="O14" s="69">
         <f t="shared" si="3"/>
         <v>224798.97787762806</v>
       </c>
-      <c r="P14" s="70">
+      <c r="P14" s="69">
         <f t="shared" si="3"/>
         <v>239414.35070354881</v>
       </c>
-      <c r="Q14" s="70">
+      <c r="Q14" s="69">
         <f t="shared" si="3"/>
         <v>274308.9175431715</v>
       </c>
-      <c r="R14" s="70">
+      <c r="R14" s="69">
         <f t="shared" si="3"/>
         <v>287467.47273571882</v>
       </c>
@@ -1536,15 +1535,15 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:86" x14ac:dyDescent="0.25">
@@ -1575,43 +1574,43 @@
         <f t="shared" si="4"/>
         <v>156633</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="41">
         <f>I11*I17</f>
         <v>165719.3822544</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="42">
         <f t="shared" ref="J16:R16" si="5">J11*J17</f>
         <v>187142.02099115535</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="42">
         <f t="shared" si="5"/>
         <v>210322.17605920287</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="42">
         <f t="shared" si="5"/>
         <v>219673.83033583825</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="42">
         <f t="shared" si="5"/>
         <v>235124.53819436778</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="42">
         <f t="shared" si="5"/>
         <v>249768.72963340301</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="42">
         <f t="shared" si="5"/>
         <v>279605.55702164338</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="42">
         <f t="shared" si="5"/>
         <v>296372.3328269638</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="42">
         <f t="shared" si="5"/>
         <v>337092.94310678501</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="42">
         <f t="shared" si="5"/>
         <v>354506.4810836782</v>
       </c>
@@ -1682,15 +1681,15 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
@@ -1715,43 +1714,43 @@
       <c r="H19" s="5">
         <v>39500</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="41">
         <f>I24*0.482</f>
         <v>41902.182254920779</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="42">
         <f t="shared" ref="J19:R19" si="8">J24*0.482</f>
         <v>46043.410695045357</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="42">
         <f t="shared" si="8"/>
         <v>50053.235010366952</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="42">
         <f t="shared" si="8"/>
         <v>51331.111250298869</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="42">
         <f t="shared" si="8"/>
         <v>54155.655937470314</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="42">
         <f t="shared" si="8"/>
         <v>53477.526509805968</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="42">
         <f t="shared" si="8"/>
         <v>56820.321537772907</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="42">
         <f t="shared" si="8"/>
         <v>59445.293879770274</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="42">
         <f t="shared" si="8"/>
         <v>74069.125461480289</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="42">
         <f t="shared" si="8"/>
         <v>78042.208127044869</v>
       </c>
@@ -1778,43 +1777,43 @@
       <c r="H20" s="5">
         <v>26567</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="41">
         <f>I24*0.324</f>
         <v>28166.612138162516</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="42">
         <f t="shared" ref="J20:R20" si="9">J24*0.324</f>
         <v>30950.342458910156</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="42">
         <f t="shared" si="9"/>
         <v>33645.743036014304</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="42">
         <f t="shared" si="9"/>
         <v>34504.73038401833</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="42">
         <f t="shared" si="9"/>
         <v>36403.386978714487</v>
       </c>
-      <c r="N20" s="43">
+      <c r="N20" s="42">
         <f t="shared" si="9"/>
         <v>35947.548940201523</v>
       </c>
-      <c r="O20" s="43">
+      <c r="O20" s="42">
         <f t="shared" si="9"/>
         <v>38194.572983897146</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="42">
         <f t="shared" si="9"/>
         <v>39959.077213787488</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="42">
         <f t="shared" si="9"/>
         <v>49789.204667053142</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="42">
         <f t="shared" si="9"/>
         <v>52459.907537681618</v>
       </c>
@@ -1841,43 +1840,43 @@
       <c r="H21" s="5">
         <v>15724</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="41">
         <f>I24*0.192</f>
         <v>16691.325711503712</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="42">
         <f t="shared" ref="J21:R21" si="10">J24*0.192</f>
         <v>18340.943679354168</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="42">
         <f t="shared" si="10"/>
         <v>19938.218095415883</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="42">
         <f t="shared" si="10"/>
         <v>20447.247634973824</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="42">
         <f t="shared" si="10"/>
         <v>21572.377468867842</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="42">
         <f t="shared" si="10"/>
         <v>21302.251223823125</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="42">
         <f t="shared" si="10"/>
         <v>22633.821027494603</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="42">
         <f t="shared" si="10"/>
         <v>23679.453163725921</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="42">
         <f t="shared" si="10"/>
         <v>29504.713876772232</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="42">
         <f t="shared" si="10"/>
         <v>31087.352614922438</v>
       </c>
@@ -1898,27 +1897,27 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
       <c r="R22" s="25"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I23" s="49"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="25"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
@@ -1949,43 +1948,43 @@
         <f>H19+H20+H21</f>
         <v>81791</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="46">
         <f>I11*I25</f>
         <v>86933.988080748502</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="47">
         <f t="shared" ref="J24:R24" si="11">J11*J25</f>
         <v>95525.748329969618</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="47">
         <f t="shared" si="11"/>
         <v>103844.88591362438</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="47">
         <f t="shared" si="11"/>
         <v>106496.08143215533</v>
       </c>
-      <c r="M24" s="48">
+      <c r="M24" s="47">
         <f t="shared" si="11"/>
         <v>112356.13265035335</v>
       </c>
-      <c r="N24" s="48">
+      <c r="N24" s="47">
         <f t="shared" si="11"/>
         <v>110949.22512407877</v>
       </c>
-      <c r="O24" s="48">
+      <c r="O24" s="47">
         <f t="shared" si="11"/>
         <v>117884.48451820106</v>
       </c>
-      <c r="P24" s="48">
+      <c r="P24" s="47">
         <f t="shared" si="11"/>
         <v>123330.48522773916</v>
       </c>
-      <c r="Q24" s="48">
+      <c r="Q24" s="47">
         <f t="shared" si="11"/>
         <v>153670.38477485537</v>
       </c>
-      <c r="R24" s="48">
+      <c r="R24" s="47">
         <f t="shared" si="11"/>
         <v>161913.2948693877</v>
       </c>
@@ -2018,34 +2017,34 @@
         <f t="shared" si="12"/>
         <v>0.289181716613161</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="49">
         <v>0.29051546019651092</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="50">
         <v>0.28595140701712374</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="50">
         <v>0.27758173652694612</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="50">
         <v>0.26518113902930995</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>0.26186616320537032</v>
       </c>
-      <c r="N25" s="51">
+      <c r="N25" s="50">
         <v>0.24619774710399001</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="50">
         <v>0.23371019957570832</v>
       </c>
-      <c r="P25" s="51">
+      <c r="P25" s="50">
         <v>0.23018579785347651</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="50">
         <v>0.25134104860507722</v>
       </c>
-      <c r="R25" s="51">
+      <c r="R25" s="50">
         <v>0.2522116261977474</v>
       </c>
     </row>
@@ -2056,16 +2055,16 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2095,43 +2094,43 @@
         <f t="shared" si="13"/>
         <v>74842</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="48">
         <f>I16-I24</f>
         <v>78785.394173651497</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="42">
         <f t="shared" ref="J27:R27" si="14">J16-J24</f>
         <v>91616.272661185736</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="42">
         <f t="shared" si="14"/>
         <v>106477.29014557849</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="42">
         <f t="shared" si="14"/>
         <v>113177.74890368292</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="42">
         <f t="shared" si="14"/>
         <v>122768.40554401443</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="42">
         <f t="shared" si="14"/>
         <v>138819.50450932424</v>
       </c>
-      <c r="O27" s="43">
+      <c r="O27" s="42">
         <f t="shared" si="14"/>
         <v>161721.07250344232</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="42">
         <f t="shared" si="14"/>
         <v>173041.84759922465</v>
       </c>
-      <c r="Q27" s="43">
+      <c r="Q27" s="42">
         <f t="shared" si="14"/>
         <v>183422.55833192964</v>
       </c>
-      <c r="R27" s="43">
+      <c r="R27" s="42">
         <f t="shared" si="14"/>
         <v>192593.1862142905</v>
       </c>
@@ -2158,43 +2157,43 @@
       <c r="H28" s="5">
         <v>-3514</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="48">
         <f>I27*I29</f>
         <v>9676.3956628236465</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="42">
         <f t="shared" ref="J28:R28" si="15">J27*J29</f>
         <v>12535.619966175964</v>
       </c>
-      <c r="K28" s="43">
+      <c r="K28" s="42">
         <f t="shared" si="15"/>
         <v>12233.095188301171</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L28" s="42">
         <f t="shared" si="15"/>
         <v>12197.698508393041</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="42">
         <f t="shared" si="15"/>
         <v>12032.603721354277</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="42">
         <f t="shared" si="15"/>
         <v>12340.345821998671</v>
       </c>
-      <c r="O28" s="43">
+      <c r="O28" s="42">
         <f t="shared" si="15"/>
         <v>18037.736058049919</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="42">
         <f t="shared" si="15"/>
         <v>18974.989281257844</v>
       </c>
-      <c r="Q28" s="43">
+      <c r="Q28" s="42">
         <f t="shared" si="15"/>
         <v>19282.633297877208</v>
       </c>
-      <c r="R28" s="43">
+      <c r="R28" s="42">
         <f t="shared" si="15"/>
         <v>19933.35025526481</v>
       </c>
@@ -2227,55 +2226,55 @@
         <f t="shared" si="16"/>
         <v>-4.6952246065043689E-2</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="75">
         <f>AVERAGE(C29:H29)</f>
         <v>0.12281966428315162</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="76">
         <f t="shared" ref="J29:R29" si="17">AVERAGE(D29:I29)</f>
         <v>0.1368274390788092</v>
       </c>
-      <c r="K29" s="77">
+      <c r="K29" s="76">
         <f t="shared" si="17"/>
         <v>0.114889242312382</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="76">
         <f t="shared" si="17"/>
         <v>0.10777470506833976</v>
       </c>
-      <c r="M29" s="77">
+      <c r="M29" s="76">
         <f t="shared" si="17"/>
         <v>9.8010588864741718E-2</v>
       </c>
-      <c r="N29" s="77">
+      <c r="N29" s="76">
         <f t="shared" si="17"/>
         <v>8.8894898923730092E-2</v>
       </c>
-      <c r="O29" s="77">
+      <c r="O29" s="76">
         <f t="shared" si="17"/>
         <v>0.1115360897551924</v>
       </c>
-      <c r="P29" s="77">
+      <c r="P29" s="76">
         <f t="shared" si="17"/>
         <v>0.10965549400053252</v>
       </c>
-      <c r="Q29" s="77">
+      <c r="Q29" s="76">
         <f t="shared" si="17"/>
         <v>0.10512683648748643</v>
       </c>
-      <c r="R29" s="77">
+      <c r="R29" s="76">
         <f t="shared" si="17"/>
         <v>0.10349976885000382</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="73"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
@@ -2311,63 +2310,63 @@
         <f>H27+H28</f>
         <v>71328</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="48">
         <f>I27+I28</f>
         <v>88461.789836475145</v>
       </c>
-      <c r="J31" s="43">
+      <c r="J31" s="42">
         <f t="shared" ref="J31:R31" si="18">J27+J28</f>
         <v>104151.8926273617</v>
       </c>
-      <c r="K31" s="43">
+      <c r="K31" s="42">
         <f t="shared" si="18"/>
         <v>118710.38533387966</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="42">
         <f t="shared" si="18"/>
         <v>125375.44741207597</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="42">
         <f t="shared" si="18"/>
         <v>134801.00926536872</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="42">
         <f t="shared" si="18"/>
         <v>151159.8503313229</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="42">
         <f t="shared" si="18"/>
         <v>179758.80856149225</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="42">
         <f t="shared" si="18"/>
         <v>192016.8368804825</v>
       </c>
-      <c r="Q31" s="43">
+      <c r="Q31" s="42">
         <f t="shared" si="18"/>
         <v>202705.19162980685</v>
       </c>
-      <c r="R31" s="43">
+      <c r="R31" s="42">
         <f t="shared" si="18"/>
         <v>212526.53646955531</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
       <c r="R32" s="25"/>
     </row>
     <row r="33" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2398,43 +2397,43 @@
         <f t="shared" si="19"/>
         <v>74842</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="48">
         <f>I34*I11</f>
         <v>78785.394173651497</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="42">
         <f t="shared" ref="J33:R33" si="20">J34*J11</f>
         <v>91616.272661185751</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="42">
         <f t="shared" si="20"/>
         <v>106477.2901455785</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="42">
         <f t="shared" si="20"/>
         <v>113177.74890368289</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="42">
         <f t="shared" si="20"/>
         <v>122768.40554401443</v>
       </c>
-      <c r="N33" s="43">
+      <c r="N33" s="42">
         <f t="shared" si="20"/>
         <v>138819.50450932427</v>
       </c>
-      <c r="O33" s="43">
+      <c r="O33" s="42">
         <f t="shared" si="20"/>
         <v>161721.07250344226</v>
       </c>
-      <c r="P33" s="43">
+      <c r="P33" s="42">
         <f t="shared" si="20"/>
         <v>173041.84759922462</v>
       </c>
-      <c r="Q33" s="43">
+      <c r="Q33" s="42">
         <f t="shared" si="20"/>
         <v>183422.55833192967</v>
       </c>
-      <c r="R33" s="43">
+      <c r="R33" s="42">
         <f t="shared" si="20"/>
         <v>192593.18621429047</v>
       </c>
@@ -2501,12 +2500,12 @@
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="E35" s="6"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
@@ -2534,43 +2533,43 @@
       <c r="H36" s="5">
         <v>11356</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="41">
         <f>I33*I37</f>
         <v>13196.553524086627</v>
       </c>
-      <c r="J36" s="43">
+      <c r="J36" s="42">
         <f t="shared" ref="J36:R36" si="22">J33*J37</f>
         <v>15263.271025353546</v>
       </c>
-      <c r="K36" s="43">
+      <c r="K36" s="42">
         <f t="shared" si="22"/>
         <v>18377.980279126848</v>
       </c>
-      <c r="L36" s="43">
+      <c r="L36" s="42">
         <f t="shared" si="22"/>
         <v>19047.815140489831</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="42">
         <f t="shared" si="22"/>
         <v>20661.922653057631</v>
       </c>
-      <c r="N36" s="43">
+      <c r="N36" s="42">
         <f t="shared" si="22"/>
         <v>23363.322608919276</v>
       </c>
-      <c r="O36" s="43">
+      <c r="O36" s="42">
         <f t="shared" si="22"/>
         <v>27217.656502329333</v>
       </c>
-      <c r="P36" s="43">
+      <c r="P36" s="42">
         <f t="shared" si="22"/>
         <v>29122.942950949506</v>
       </c>
-      <c r="Q36" s="43">
+      <c r="Q36" s="42">
         <f t="shared" si="22"/>
         <v>30870.016567263763</v>
       </c>
-      <c r="R36" s="43">
+      <c r="R36" s="42">
         <f t="shared" si="22"/>
         <v>32413.433239865088</v>
       </c>
@@ -2635,15 +2634,15 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
       <c r="R38" s="25"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
@@ -2670,34 +2669,34 @@
       <c r="H39" s="14">
         <v>2022</v>
       </c>
-      <c r="I39" s="74">
+      <c r="I39" s="73">
         <v>2023</v>
       </c>
-      <c r="J39" s="75">
+      <c r="J39" s="74">
         <v>2024</v>
       </c>
-      <c r="K39" s="75">
+      <c r="K39" s="74">
         <v>2025</v>
       </c>
-      <c r="L39" s="75">
+      <c r="L39" s="74">
         <v>2026</v>
       </c>
-      <c r="M39" s="75">
+      <c r="M39" s="74">
         <v>2027</v>
       </c>
-      <c r="N39" s="75">
+      <c r="N39" s="74">
         <v>2028</v>
       </c>
-      <c r="O39" s="75">
+      <c r="O39" s="74">
         <v>2029</v>
       </c>
-      <c r="P39" s="75">
+      <c r="P39" s="74">
         <v>2030</v>
       </c>
-      <c r="Q39" s="75">
+      <c r="Q39" s="74">
         <v>2031</v>
       </c>
-      <c r="R39" s="75">
+      <c r="R39" s="74">
         <v>2032</v>
       </c>
     </row>
@@ -2726,43 +2725,43 @@
         <f>15287+641</f>
         <v>15928</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="48">
         <f>I41*I11</f>
         <v>15231.042818795537</v>
       </c>
-      <c r="J40" s="43">
+      <c r="J40" s="42">
         <f t="shared" ref="J40:R40" si="24">J41*J11</f>
         <v>17311.185239221977</v>
       </c>
-      <c r="K40" s="43">
+      <c r="K40" s="42">
         <f t="shared" si="24"/>
         <v>21161.448853953611</v>
       </c>
-      <c r="L40" s="43">
+      <c r="L40" s="42">
         <f t="shared" si="24"/>
         <v>26351.804220306127</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="42">
         <f t="shared" si="24"/>
         <v>29552.023328654504</v>
       </c>
-      <c r="N40" s="43">
+      <c r="N40" s="42">
         <f t="shared" si="24"/>
         <v>32882.25133827953</v>
       </c>
-      <c r="O40" s="43">
+      <c r="O40" s="42">
         <f t="shared" si="24"/>
         <v>26481.813121582785</v>
       </c>
-      <c r="P40" s="43">
+      <c r="P40" s="42">
         <f t="shared" si="24"/>
         <v>27521.884331796002</v>
       </c>
-      <c r="Q40" s="43">
+      <c r="Q40" s="42">
         <f t="shared" si="24"/>
         <v>35966.697094062067</v>
       </c>
-      <c r="R40" s="43">
+      <c r="R40" s="42">
         <f t="shared" si="24"/>
         <v>38401.313949670723</v>
       </c>
@@ -2819,21 +2818,21 @@
       <c r="P41" s="3">
         <v>5.1367242183854411E-2</v>
       </c>
-      <c r="Q41" s="78">
+      <c r="Q41" s="77">
         <v>5.8826607193879533E-2</v>
       </c>
-      <c r="R41" s="78">
+      <c r="R41" s="77">
         <v>5.9817557583456034E-2</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
@@ -2861,43 +2860,43 @@
       <c r="H43" s="5">
         <v>-31485</v>
       </c>
-      <c r="I43" s="49">
+      <c r="I43" s="48">
         <f>I44*I11</f>
         <v>-32552.228742731102</v>
       </c>
-      <c r="J43" s="43">
+      <c r="J43" s="42">
         <f t="shared" ref="J43:R43" si="26">J44*J11</f>
         <v>-33192.272564400781</v>
       </c>
-      <c r="K43" s="43">
+      <c r="K43" s="42">
         <f t="shared" si="26"/>
         <v>-35022.397866987492</v>
       </c>
-      <c r="L43" s="43">
+      <c r="L43" s="42">
         <f t="shared" si="26"/>
         <v>-34932.391704565205</v>
       </c>
-      <c r="M43" s="43">
+      <c r="M43" s="42">
         <f t="shared" si="26"/>
         <v>-36012.465653632775</v>
       </c>
-      <c r="N43" s="43">
+      <c r="N43" s="42">
         <f t="shared" si="26"/>
         <v>-37172.545080409065</v>
       </c>
-      <c r="O43" s="43">
+      <c r="O43" s="42">
         <f t="shared" si="26"/>
         <v>-40002.738854354655</v>
       </c>
-      <c r="P43" s="43">
+      <c r="P43" s="42">
         <f t="shared" si="26"/>
         <v>-42002.875797072389</v>
       </c>
-      <c r="Q43" s="43">
+      <c r="Q43" s="42">
         <f t="shared" si="26"/>
         <v>-44003.012739790116</v>
       </c>
-      <c r="R43" s="43">
+      <c r="R43" s="42">
         <f t="shared" si="26"/>
         <v>-46003.14968250785</v>
       </c>
@@ -2963,12 +2962,12 @@
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
       <c r="Q45" s="25"/>
@@ -2996,43 +2995,43 @@
       <c r="H46" s="1">
         <v>2030</v>
       </c>
-      <c r="I46" s="42">
+      <c r="I46" s="41">
         <f t="shared" ref="I46:R46" si="28">I47*I11</f>
         <v>2992.40488</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="42">
         <f t="shared" si="28"/>
         <v>3340.6287217271574</v>
       </c>
-      <c r="K46" s="43">
+      <c r="K46" s="42">
         <f t="shared" si="28"/>
         <v>3741.0561376592473</v>
       </c>
-      <c r="L46" s="43">
+      <c r="L46" s="42">
         <f t="shared" si="28"/>
         <v>4015.9749604357994</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="42">
         <f t="shared" si="28"/>
         <v>4290.5937626709447</v>
       </c>
-      <c r="N46" s="43">
+      <c r="N46" s="42">
         <f t="shared" si="28"/>
         <v>4506.5085456373245</v>
       </c>
-      <c r="O46" s="43">
+      <c r="O46" s="42">
         <f t="shared" si="28"/>
         <v>5044.0453489927149</v>
       </c>
-      <c r="P46" s="43">
+      <c r="P46" s="42">
         <f t="shared" si="28"/>
         <v>5357.8668353051262</v>
       </c>
-      <c r="Q46" s="43">
+      <c r="Q46" s="42">
         <f t="shared" si="28"/>
         <v>6114.0186064995651</v>
       </c>
-      <c r="R46" s="43">
+      <c r="R46" s="42">
         <f t="shared" si="28"/>
         <v>6419.7395381939705</v>
       </c>
@@ -3097,15 +3096,15 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="I48" s="42"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
       <c r="R48" s="25"/>
     </row>
     <row r="49" spans="2:86" x14ac:dyDescent="0.25">
@@ -3136,43 +3135,43 @@
         <f>H33-H36</f>
         <v>63486</v>
       </c>
-      <c r="I49" s="42">
+      <c r="I49" s="41">
         <f>I33-I36</f>
         <v>65588.840649564867</v>
       </c>
-      <c r="J49" s="43">
+      <c r="J49" s="42">
         <f t="shared" si="30"/>
         <v>76353.001635832203</v>
       </c>
-      <c r="K49" s="43">
+      <c r="K49" s="42">
         <f t="shared" si="30"/>
         <v>88099.309866451658</v>
       </c>
-      <c r="L49" s="43">
+      <c r="L49" s="42">
         <f t="shared" si="30"/>
         <v>94129.933763193054</v>
       </c>
-      <c r="M49" s="43">
+      <c r="M49" s="42">
         <f t="shared" si="30"/>
         <v>102106.4828909568</v>
       </c>
-      <c r="N49" s="43">
+      <c r="N49" s="42">
         <f t="shared" si="30"/>
         <v>115456.18190040499</v>
       </c>
-      <c r="O49" s="43">
+      <c r="O49" s="42">
         <f t="shared" si="30"/>
         <v>134503.41600111293</v>
       </c>
-      <c r="P49" s="43">
+      <c r="P49" s="42">
         <f t="shared" si="30"/>
         <v>143918.90464827511</v>
       </c>
-      <c r="Q49" s="43">
+      <c r="Q49" s="42">
         <f t="shared" si="30"/>
         <v>152552.54176466592</v>
       </c>
-      <c r="R49" s="43">
+      <c r="R49" s="42">
         <f t="shared" si="30"/>
         <v>160179.75297442538</v>
       </c>
@@ -3205,315 +3204,315 @@
         <f t="shared" si="31"/>
         <v>59972</v>
       </c>
-      <c r="I50" s="43">
+      <c r="I50" s="42">
         <f>I31-I36</f>
         <v>75265.236312388515</v>
       </c>
-      <c r="J50" s="43">
+      <c r="J50" s="42">
         <f>J31-J36</f>
         <v>88888.621602008148</v>
       </c>
-      <c r="K50" s="43">
+      <c r="K50" s="42">
         <f t="shared" ref="K50:Q50" si="32">K31-K36</f>
         <v>100332.40505475282</v>
       </c>
-      <c r="L50" s="43">
+      <c r="L50" s="42">
         <f t="shared" si="32"/>
         <v>106327.63227158613</v>
       </c>
-      <c r="M50" s="43">
+      <c r="M50" s="42">
         <f t="shared" si="32"/>
         <v>114139.08661231109</v>
       </c>
-      <c r="N50" s="43">
+      <c r="N50" s="42">
         <f t="shared" si="32"/>
         <v>127796.52772240363</v>
       </c>
-      <c r="O50" s="43">
+      <c r="O50" s="42">
         <f t="shared" si="32"/>
         <v>152541.15205916291</v>
       </c>
-      <c r="P50" s="43">
+      <c r="P50" s="42">
         <f t="shared" si="32"/>
         <v>162893.89392953299</v>
       </c>
-      <c r="Q50" s="43">
+      <c r="Q50" s="42">
         <f t="shared" si="32"/>
         <v>171835.1750625431</v>
       </c>
-      <c r="R50" s="43">
+      <c r="R50" s="42">
         <f>R31-R36</f>
         <v>180113.10322969023</v>
       </c>
-      <c r="S50" s="39">
+      <c r="S50" s="38">
         <f t="shared" ref="S50:AX50" si="33">R50*(1+$E$6)</f>
         <v>185516.49632658093</v>
       </c>
-      <c r="T50" s="39">
+      <c r="T50" s="38">
         <f t="shared" si="33"/>
         <v>191081.99121637837</v>
       </c>
-      <c r="U50" s="39">
+      <c r="U50" s="38">
         <f t="shared" si="33"/>
         <v>196814.45095286972</v>
       </c>
-      <c r="V50" s="39">
+      <c r="V50" s="38">
         <f t="shared" si="33"/>
         <v>202718.88448145581</v>
       </c>
-      <c r="W50" s="39">
+      <c r="W50" s="38">
         <f t="shared" si="33"/>
         <v>208800.45101589948</v>
       </c>
-      <c r="X50" s="39">
+      <c r="X50" s="38">
         <f t="shared" si="33"/>
         <v>215064.46454637646</v>
       </c>
-      <c r="Y50" s="39">
+      <c r="Y50" s="38">
         <f t="shared" si="33"/>
         <v>221516.39848276775</v>
       </c>
-      <c r="Z50" s="39">
+      <c r="Z50" s="38">
         <f t="shared" si="33"/>
         <v>228161.89043725078</v>
       </c>
-      <c r="AA50" s="39">
+      <c r="AA50" s="38">
         <f t="shared" si="33"/>
         <v>235006.74715036832</v>
       </c>
-      <c r="AB50" s="39">
+      <c r="AB50" s="38">
         <f t="shared" si="33"/>
         <v>242056.94956487938</v>
       </c>
-      <c r="AC50" s="39">
+      <c r="AC50" s="38">
         <f t="shared" si="33"/>
         <v>249318.65805182577</v>
       </c>
-      <c r="AD50" s="39">
+      <c r="AD50" s="38">
         <f t="shared" si="33"/>
         <v>256798.21779338055</v>
       </c>
-      <c r="AE50" s="39">
+      <c r="AE50" s="38">
         <f t="shared" si="33"/>
         <v>264502.16432718199</v>
       </c>
-      <c r="AF50" s="39">
+      <c r="AF50" s="38">
         <f t="shared" si="33"/>
         <v>272437.22925699747</v>
       </c>
-      <c r="AG50" s="39">
+      <c r="AG50" s="38">
         <f t="shared" si="33"/>
         <v>280610.34613470739</v>
       </c>
-      <c r="AH50" s="39">
+      <c r="AH50" s="38">
         <f t="shared" si="33"/>
         <v>289028.65651874861</v>
       </c>
-      <c r="AI50" s="39">
+      <c r="AI50" s="38">
         <f t="shared" si="33"/>
         <v>297699.51621431106</v>
       </c>
-      <c r="AJ50" s="39">
+      <c r="AJ50" s="38">
         <f t="shared" si="33"/>
         <v>306630.50170074042</v>
       </c>
-      <c r="AK50" s="39">
+      <c r="AK50" s="38">
         <f t="shared" si="33"/>
         <v>315829.41675176262</v>
       </c>
-      <c r="AL50" s="39">
+      <c r="AL50" s="38">
         <f t="shared" si="33"/>
         <v>325304.2992543155</v>
       </c>
-      <c r="AM50" s="39">
+      <c r="AM50" s="38">
         <f t="shared" si="33"/>
         <v>335063.42823194497</v>
       </c>
-      <c r="AN50" s="39">
+      <c r="AN50" s="38">
         <f t="shared" si="33"/>
         <v>345115.33107890334</v>
       </c>
-      <c r="AO50" s="39">
+      <c r="AO50" s="38">
         <f t="shared" si="33"/>
         <v>355468.79101127043</v>
       </c>
-      <c r="AP50" s="39">
+      <c r="AP50" s="38">
         <f t="shared" si="33"/>
         <v>366132.85474160855</v>
       </c>
-      <c r="AQ50" s="39">
+      <c r="AQ50" s="38">
         <f t="shared" si="33"/>
         <v>377116.84038385679</v>
       </c>
-      <c r="AR50" s="39">
+      <c r="AR50" s="38">
         <f t="shared" si="33"/>
         <v>388430.34559537249</v>
       </c>
-      <c r="AS50" s="39">
+      <c r="AS50" s="38">
         <f t="shared" si="33"/>
         <v>400083.25596323365</v>
       </c>
-      <c r="AT50" s="39">
+      <c r="AT50" s="38">
         <f t="shared" si="33"/>
         <v>412085.75364213064</v>
       </c>
-      <c r="AU50" s="39">
+      <c r="AU50" s="38">
         <f t="shared" si="33"/>
         <v>424448.32625139458</v>
       </c>
-      <c r="AV50" s="39">
+      <c r="AV50" s="38">
         <f t="shared" si="33"/>
         <v>437181.77603893646</v>
       </c>
-      <c r="AW50" s="39">
+      <c r="AW50" s="38">
         <f t="shared" si="33"/>
         <v>450297.22932010458</v>
       </c>
-      <c r="AX50" s="39">
+      <c r="AX50" s="38">
         <f t="shared" si="33"/>
         <v>463806.14619970776</v>
       </c>
-      <c r="AY50" s="39">
+      <c r="AY50" s="38">
         <f t="shared" ref="AY50:CH50" si="34">AX50*(1+$E$6)</f>
         <v>477720.330585699</v>
       </c>
-      <c r="AZ50" s="39">
+      <c r="AZ50" s="38">
         <f t="shared" si="34"/>
         <v>492051.94050327002</v>
       </c>
-      <c r="BA50" s="39">
+      <c r="BA50" s="38">
         <f t="shared" si="34"/>
         <v>506813.49871836812</v>
       </c>
-      <c r="BB50" s="39">
+      <c r="BB50" s="38">
         <f t="shared" si="34"/>
         <v>522017.9036799192</v>
       </c>
-      <c r="BC50" s="39">
+      <c r="BC50" s="38">
         <f t="shared" si="34"/>
         <v>537678.44079031679</v>
       </c>
-      <c r="BD50" s="39">
+      <c r="BD50" s="38">
         <f t="shared" si="34"/>
         <v>553808.79401402629</v>
       </c>
-      <c r="BE50" s="39">
+      <c r="BE50" s="38">
         <f t="shared" si="34"/>
         <v>570423.05783444713</v>
       </c>
-      <c r="BF50" s="39">
+      <c r="BF50" s="38">
         <f t="shared" si="34"/>
         <v>587535.74956948054</v>
       </c>
-      <c r="BG50" s="39">
+      <c r="BG50" s="38">
         <f t="shared" si="34"/>
         <v>605161.82205656497</v>
       </c>
-      <c r="BH50" s="39">
+      <c r="BH50" s="38">
         <f t="shared" si="34"/>
         <v>623316.67671826191</v>
       </c>
-      <c r="BI50" s="39">
+      <c r="BI50" s="38">
         <f t="shared" si="34"/>
         <v>642016.17701980984</v>
       </c>
-      <c r="BJ50" s="39">
+      <c r="BJ50" s="38">
         <f t="shared" si="34"/>
         <v>661276.66233040416</v>
       </c>
-      <c r="BK50" s="39">
+      <c r="BK50" s="38">
         <f t="shared" si="34"/>
         <v>681114.96220031625</v>
       </c>
-      <c r="BL50" s="39">
+      <c r="BL50" s="38">
         <f t="shared" si="34"/>
         <v>701548.41106632573</v>
       </c>
-      <c r="BM50" s="39">
+      <c r="BM50" s="38">
         <f t="shared" si="34"/>
         <v>722594.8633983155</v>
       </c>
-      <c r="BN50" s="39">
+      <c r="BN50" s="38">
         <f t="shared" si="34"/>
         <v>744272.70930026495</v>
       </c>
-      <c r="BO50" s="39">
+      <c r="BO50" s="38">
         <f t="shared" si="34"/>
         <v>766600.89057927288</v>
       </c>
-      <c r="BP50" s="39">
+      <c r="BP50" s="38">
         <f t="shared" si="34"/>
         <v>789598.91729665105</v>
       </c>
-      <c r="BQ50" s="39">
+      <c r="BQ50" s="38">
         <f t="shared" si="34"/>
         <v>813286.88481555064</v>
       </c>
-      <c r="BR50" s="39">
+      <c r="BR50" s="38">
         <f t="shared" si="34"/>
         <v>837685.49136001721</v>
       </c>
-      <c r="BS50" s="39">
+      <c r="BS50" s="38">
         <f t="shared" si="34"/>
         <v>862816.05610081775</v>
       </c>
-      <c r="BT50" s="39">
+      <c r="BT50" s="38">
         <f t="shared" si="34"/>
         <v>888700.5377838423</v>
       </c>
-      <c r="BU50" s="39">
+      <c r="BU50" s="38">
         <f t="shared" si="34"/>
         <v>915361.55391735758</v>
       </c>
-      <c r="BV50" s="39">
+      <c r="BV50" s="38">
         <f t="shared" si="34"/>
         <v>942822.40053487837</v>
       </c>
-      <c r="BW50" s="39">
+      <c r="BW50" s="38">
         <f t="shared" si="34"/>
         <v>971107.07255092473</v>
       </c>
-      <c r="BX50" s="39">
+      <c r="BX50" s="38">
         <f t="shared" si="34"/>
         <v>1000240.2847274524</v>
       </c>
-      <c r="BY50" s="39">
+      <c r="BY50" s="38">
         <f t="shared" si="34"/>
         <v>1030247.493269276</v>
       </c>
-      <c r="BZ50" s="39">
+      <c r="BZ50" s="38">
         <f t="shared" si="34"/>
         <v>1061154.9180673542</v>
       </c>
-      <c r="CA50" s="39">
+      <c r="CA50" s="38">
         <f t="shared" si="34"/>
         <v>1092989.565609375</v>
       </c>
-      <c r="CB50" s="39">
+      <c r="CB50" s="38">
         <f t="shared" si="34"/>
         <v>1125779.2525776562</v>
       </c>
-      <c r="CC50" s="39">
+      <c r="CC50" s="38">
         <f t="shared" si="34"/>
         <v>1159552.6301549859</v>
       </c>
-      <c r="CD50" s="39">
+      <c r="CD50" s="38">
         <f t="shared" si="34"/>
         <v>1194339.2090596356</v>
       </c>
-      <c r="CE50" s="39">
+      <c r="CE50" s="38">
         <f t="shared" si="34"/>
         <v>1230169.3853314247</v>
       </c>
-      <c r="CF50" s="39">
+      <c r="CF50" s="38">
         <f t="shared" si="34"/>
         <v>1267074.4668913675</v>
       </c>
-      <c r="CG50" s="39">
+      <c r="CG50" s="38">
         <f t="shared" si="34"/>
         <v>1305086.7008981085</v>
       </c>
-      <c r="CH50" s="39">
+      <c r="CH50" s="38">
         <f t="shared" si="34"/>
         <v>1344239.3019250517</v>
       </c>
@@ -3526,15 +3525,15 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
       <c r="R51" s="25"/>
     </row>
     <row r="52" spans="2:86" x14ac:dyDescent="0.25">
@@ -3542,133 +3541,133 @@
         <v>31</v>
       </c>
       <c r="C52" s="23">
-        <f>C49+C40-C43-C46</f>
-        <v>35004</v>
+        <f t="shared" ref="C52:G52" si="35">C49+C40+C43-C46</f>
+        <v>8636</v>
       </c>
       <c r="D52" s="23">
-        <f t="shared" ref="D52:R52" si="35">D49+D40-D43-D46</f>
-        <v>62950</v>
+        <f t="shared" si="35"/>
+        <v>12672</v>
       </c>
       <c r="E52" s="23">
         <f t="shared" si="35"/>
-        <v>66273</v>
+        <v>19177</v>
       </c>
       <c r="F52" s="23">
         <f t="shared" si="35"/>
-        <v>74789</v>
+        <v>30227</v>
       </c>
       <c r="G52" s="23">
         <f t="shared" si="35"/>
-        <v>98114</v>
+        <v>48834</v>
       </c>
       <c r="H52" s="23">
-        <f t="shared" si="35"/>
-        <v>108869</v>
-      </c>
-      <c r="I52" s="29">
-        <f>I49+I40-I43-I46</f>
-        <v>110379.7073310915</v>
+        <f>H49+H40+H43-H46</f>
+        <v>45899</v>
+      </c>
+      <c r="I52" s="23">
+        <f t="shared" ref="I52:R52" si="36">I49+I40+I43-I46</f>
+        <v>45275.249845629303</v>
       </c>
       <c r="J52" s="23">
-        <f t="shared" si="35"/>
-        <v>123515.83071772779</v>
+        <f t="shared" si="36"/>
+        <v>57131.285588926236</v>
       </c>
       <c r="K52" s="23">
-        <f t="shared" si="35"/>
-        <v>140542.10044973352</v>
+        <f t="shared" si="36"/>
+        <v>70497.304715758524</v>
       </c>
       <c r="L52" s="23">
-        <f t="shared" si="35"/>
-        <v>151398.1547276286</v>
+        <f t="shared" si="36"/>
+        <v>81533.37131849819</v>
       </c>
       <c r="M52" s="23">
-        <f t="shared" si="35"/>
-        <v>163380.37811057313</v>
+        <f t="shared" si="36"/>
+        <v>91355.446803307583</v>
       </c>
       <c r="N52" s="23">
-        <f t="shared" si="35"/>
-        <v>181004.46977345625</v>
+        <f t="shared" si="36"/>
+        <v>106659.37961263813</v>
       </c>
       <c r="O52" s="23">
-        <f t="shared" si="35"/>
-        <v>195943.92262805765</v>
+        <f t="shared" si="36"/>
+        <v>115938.44491934835</v>
       </c>
       <c r="P52" s="23">
-        <f t="shared" si="35"/>
-        <v>208085.79794183839</v>
+        <f t="shared" si="36"/>
+        <v>124080.04634769358</v>
       </c>
       <c r="Q52" s="23">
-        <f t="shared" si="35"/>
-        <v>226408.23299201851</v>
+        <f t="shared" si="36"/>
+        <v>138402.2075124383</v>
       </c>
       <c r="R52" s="23">
-        <f t="shared" si="35"/>
-        <v>238164.47706840999</v>
+        <f t="shared" si="36"/>
+        <v>146158.17770339429</v>
       </c>
     </row>
     <row r="53" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I53" s="42">
-        <f t="shared" ref="I53:R53" si="36">I52/((1+$E$5)^I9)</f>
-        <v>100445.00835278029</v>
-      </c>
-      <c r="J53" s="43">
-        <f t="shared" si="36"/>
-        <v>102282.38955884431</v>
-      </c>
-      <c r="K53" s="43">
-        <f t="shared" si="36"/>
-        <v>105906.78951987914</v>
-      </c>
-      <c r="L53" s="43">
-        <f t="shared" si="36"/>
-        <v>103819.05368426602</v>
-      </c>
-      <c r="M53" s="43">
-        <f t="shared" si="36"/>
-        <v>101951.94179349589</v>
-      </c>
-      <c r="N53" s="43">
-        <f t="shared" si="36"/>
-        <v>102783.64752782557</v>
-      </c>
-      <c r="O53" s="43">
-        <f t="shared" si="36"/>
-        <v>101252.47434556487</v>
-      </c>
-      <c r="P53" s="43">
-        <f t="shared" si="36"/>
-        <v>97848.778444345822</v>
-      </c>
-      <c r="Q53" s="43">
-        <f t="shared" si="36"/>
-        <v>96882.269625274959</v>
-      </c>
-      <c r="R53" s="43">
-        <f t="shared" si="36"/>
-        <v>92740.235787122801</v>
+      <c r="I53" s="41">
+        <f t="shared" ref="I53:R53" si="37">I52/((1+$E$5)^I9)</f>
+        <v>41200.26188579567</v>
+      </c>
+      <c r="J53" s="42">
+        <f t="shared" si="37"/>
+        <v>47309.922741469614</v>
+      </c>
+      <c r="K53" s="42">
+        <f t="shared" si="37"/>
+        <v>53123.890907842033</v>
+      </c>
+      <c r="L53" s="42">
+        <f t="shared" si="37"/>
+        <v>55910.307950600378</v>
+      </c>
+      <c r="M53" s="42">
+        <f t="shared" si="37"/>
+        <v>57007.244705396355</v>
+      </c>
+      <c r="N53" s="42">
+        <f t="shared" si="37"/>
+        <v>60566.681548599023</v>
+      </c>
+      <c r="O53" s="42">
+        <f t="shared" si="37"/>
+        <v>59910.275666697627</v>
+      </c>
+      <c r="P53" s="42">
+        <f t="shared" si="37"/>
+        <v>58346.514200037615</v>
+      </c>
+      <c r="Q53" s="42">
+        <f t="shared" si="37"/>
+        <v>59223.641330330931</v>
+      </c>
+      <c r="R53" s="42">
+        <f t="shared" si="37"/>
+        <v>56913.373603299951</v>
       </c>
     </row>
     <row r="54" spans="2:86" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
     </row>
     <row r="55" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -3676,12 +3675,12 @@
       </c>
       <c r="C55" s="25">
         <f>(R52*(1+$E$6))/($E$5-$E$6)</f>
-        <v>3560015.0844032504</v>
+        <v>2184731.0049664425</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="43">
+      <c r="F55" s="42">
         <f>NPV($E$5,I50:CH50)</f>
         <v>1769035.5577109675</v>
       </c>
@@ -3691,15 +3690,15 @@
       <c r="B56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="43">
         <f>C55/((1+$E$5)^$R$9)</f>
-        <v>1386254.7530059977</v>
+        <v>850724.97387520783</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="31"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="26"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
@@ -3709,7 +3708,7 @@
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
-      <c r="R56" s="30"/>
+      <c r="R56" s="29"/>
     </row>
     <row r="57" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -3718,10 +3717,10 @@
       <c r="C57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="38" t="s">
         <v>42</v>
       </c>
       <c r="I57" s="19"/>
@@ -3735,9 +3734,9 @@
       </c>
       <c r="G58" s="6">
         <f>C56+SUM(I53:R53)</f>
-        <v>2392167.3416453972</v>
-      </c>
-      <c r="H58" s="43">
+        <v>1400237.0884152772</v>
+      </c>
+      <c r="H58" s="42">
         <f>F55</f>
         <v>1769035.5577109675</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="35">
+      <c r="D59" s="34">
         <v>68854</v>
       </c>
       <c r="E59" s="9"/>
@@ -3765,11 +3764,11 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="36">
+      <c r="G60" s="35">
         <f>G58+D58-D59</f>
-        <v>2438415.3416453972</v>
-      </c>
-      <c r="H60" s="41">
+        <v>1446485.0884152772</v>
+      </c>
+      <c r="H60" s="40">
         <f>H58+D58-D59</f>
         <v>1815283.5577109675</v>
       </c>
@@ -3787,7 +3786,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="52"/>
+      <c r="H61" s="51"/>
       <c r="I61" s="19"/>
     </row>
     <row r="62" spans="2:86" x14ac:dyDescent="0.25">
@@ -3802,7 +3801,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="53"/>
+      <c r="H62" s="52"/>
     </row>
     <row r="63" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -3813,15 +3812,15 @@
       </c>
       <c r="D63" s="4">
         <f>(G63+H63)/2</f>
-        <v>167.50802943043101</v>
+        <v>128.44643010657023</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="45">
+      <c r="G63" s="44">
         <f>G60/D61</f>
-        <v>192.04657333585865</v>
-      </c>
-      <c r="H63" s="46">
+        <v>113.92337468813713</v>
+      </c>
+      <c r="H63" s="45">
         <f>H60/D61</f>
         <v>142.96948552500334</v>
       </c>
@@ -3863,45 +3862,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="67"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="63">
         <v>0.16830000000000001</v>
       </c>
     </row>
@@ -3909,7 +3908,7 @@
       <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
@@ -3917,7 +3916,7 @@
       <c r="B8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3925,7 +3924,7 @@
       <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="63">
         <v>0.06</v>
       </c>
     </row>
@@ -3956,14 +3955,14 @@
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <f>C12/K12</f>
         <v>0.95260688299432761</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="55">
         <f>G12/K12</f>
         <v>4.7393117005672392E-2</v>
       </c>
@@ -3972,27 +3971,27 @@
       <c r="A14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="56">
         <f>D7+D8*(D9)</f>
         <v>0.10300000000000001</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="53">
         <v>0.02</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63">
+      <c r="J14" s="61"/>
+      <c r="K14" s="62">
         <f>C13*C14+G14*G13*(1-D6)</f>
         <v>9.8906846056688105E-2</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="66"/>
+      <c r="D17" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
